--- a/entreprenariat/Planning-TODO-LIST-INNOV-PROJECTs.xlsx
+++ b/entreprenariat/Planning-TODO-LIST-INNOV-PROJECTs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>Activité</t>
   </si>
@@ -121,9 +121,6 @@
     <t>après l'exportation des données ferme le modal  et signifie l'état de opération à l'utilisateur</t>
   </si>
   <si>
-    <t>intégrer l'envoie des SMS</t>
-  </si>
-  <si>
     <t>les message d'erreur capture niveau service ne sont pas throw : throw new KerenExecption("La Remise Saisie ne peut etre negative !!!!!");</t>
   </si>
   <si>
@@ -272,6 +269,33 @@
   </si>
   <si>
     <t xml:space="preserve">revoir les contrainte Ge et Le </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recherche: qd on met l'espace la recherche plante </t>
+  </si>
+  <si>
+    <t>formater mes champ montant mettre en gras par exemple</t>
+  </si>
+  <si>
+    <t>pas tro necessaire chaque client doit avoir sa BD</t>
+  </si>
+  <si>
+    <t>permettre de faire des report en focntion des critére de grandeur : -note&lt;= à,, , note &gt;=à  moyenne&gt;= à ,,,</t>
+  </si>
+  <si>
+    <t>Matrice des eleve d'une , et Moyenne par sequence  ressortir la moyenne annuelle</t>
+  </si>
+  <si>
+    <t>matrice des abscenes pour le consiel de discipline pour l'année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrice des note d'une élève par matiere pour tt les sequnce </t>
+  </si>
+  <si>
+    <t>probleme aveckanban : pb cliquer sur le bouton quitter produit un bugs</t>
+  </si>
+  <si>
+    <t>Module BI</t>
   </si>
 </sst>
 </file>
@@ -303,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,35 +501,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -509,6 +514,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,14 +875,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="2"/>
@@ -942,11 +987,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,32 +1002,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="30" t="s">
         <v>4</v>
       </c>
     </row>
@@ -991,12 +1036,12 @@
         <f>1+0</f>
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,7 +1057,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1032,7 +1077,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1047,16 +1092,16 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="41"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="B9" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1064,73 +1109,80 @@
         <v>1</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="26"/>
       <c r="F10" s="24"/>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <f>A10+1</f>
-        <v>2</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="31" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <f t="shared" ref="A12" si="0">A11+1</f>
-        <v>3</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
+      <c r="A12" s="6"/>
+      <c r="B12" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
+      <c r="F12" s="31" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
-        <v>80</v>
+      <c r="B13" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="24"/>
+      <c r="F13" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f>A10+1</f>
+        <v>2</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="35" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -1140,7 +1192,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -1150,7 +1202,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -1160,7 +1212,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -1170,58 +1222,48 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="23">
-        <v>43500</v>
-      </c>
-      <c r="D20" s="23">
-        <v>43500</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="29"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="23">
-        <v>43501</v>
-      </c>
-      <c r="D21" s="23">
-        <v>43501</v>
-      </c>
+      <c r="B21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="29"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
-        <v>78</v>
+      <c r="B22" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="26"/>
       <c r="F22" s="24"/>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="23">
-        <v>43502</v>
-      </c>
-      <c r="D23" s="23">
-        <v>43502</v>
-      </c>
+      <c r="B23" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="26"/>
@@ -1229,134 +1271,118 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="28" t="s">
-        <v>58</v>
-      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="26"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="24"/>
+      <c r="B27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="23">
-        <v>43501</v>
-      </c>
-      <c r="D28" s="23">
-        <v>43501</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="29"/>
+      <c r="B28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="23">
-        <v>43501</v>
-      </c>
-      <c r="D29" s="23">
-        <v>43501</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="29"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="24"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="23">
-        <v>43501</v>
-      </c>
-      <c r="D31" s="23">
-        <v>43501</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="29"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="26"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="24"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="24"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="40"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="40"/>
+      <c r="F35" s="24"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
+      <c r="B37" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="C37" s="9"/>
       <c r="D37" s="7"/>
       <c r="E37" s="6"/>
@@ -1364,7 +1390,9 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
+      <c r="B38" s="23" t="s">
+        <v>64</v>
+      </c>
       <c r="C38" s="9"/>
       <c r="D38" s="7"/>
       <c r="E38" s="6"/>
@@ -1372,56 +1400,58 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="24"/>
+      <c r="B39" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="24"/>
+      <c r="B40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="7" t="s">
-        <v>39</v>
+      <c r="B41" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="24"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="7" t="s">
-        <v>40</v>
+      <c r="B42" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="7"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="24"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="24"/>
+      <c r="B43" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="23" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="7"/>
@@ -1431,7 +1461,7 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="23" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="7"/>
@@ -1439,9 +1469,12 @@
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="6">
+        <f>A39+1</f>
+        <v>1</v>
+      </c>
       <c r="B46" s="23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="7"/>
@@ -1450,84 +1483,115 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="28"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="28"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
+      <c r="B49" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="23">
+        <v>43500</v>
+      </c>
+      <c r="D49" s="23">
+        <v>43500</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="28"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="23">
+        <v>43501</v>
+      </c>
+      <c r="D50" s="23">
+        <v>43501</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="7"/>
+      <c r="B51" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="23">
+        <v>43502</v>
+      </c>
+      <c r="D51" s="23">
+        <v>43502</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="23">
+        <v>43501</v>
+      </c>
+      <c r="D52" s="23">
+        <v>43501</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="28"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="23">
+        <v>43501</v>
+      </c>
+      <c r="D53" s="23">
+        <v>43501</v>
+      </c>
+      <c r="E53" s="26"/>
+      <c r="F53" s="28"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <f>A46+1</f>
-        <v>1</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="7"/>
+      <c r="C54" s="23">
+        <v>43501</v>
+      </c>
+      <c r="D54" s="23">
+        <v>43501</v>
+      </c>
+      <c r="E54" s="26"/>
+      <c r="F54" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B40:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1550,14 +1614,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1653,14 +1717,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1753,14 +1817,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1799,7 +1863,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,11 +1931,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1929,7 +1993,7 @@
         <v>43473</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>25</v>
@@ -1962,7 +2026,7 @@
         <v>43496</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1970,7 +2034,7 @@
         <v>43474</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>26</v>
@@ -1981,7 +2045,7 @@
         <v>43500</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>26</v>
@@ -1992,7 +2056,7 @@
         <v>43500</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>25</v>
@@ -2003,7 +2067,7 @@
         <v>43500</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>25</v>
@@ -2014,7 +2078,7 @@
         <v>43501</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>25</v>
@@ -2025,7 +2089,7 @@
         <v>43502</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>25</v>
@@ -2036,10 +2100,43 @@
         <v>43502</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>43503</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>43503</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>43504</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
